--- a/docs/7-30-2025 BBB Frontend Review Comments.xlsx
+++ b/docs/7-30-2025 BBB Frontend Review Comments.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ril65445\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\busybeeboard\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{39786BC6-3AAD-4BE7-B0CC-FB43641A2D3D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED0941A-23EE-4053-9DF7-CD9F838F8560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{7E69E474-E2A0-4391-AAE9-29C85B6E0562}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E69E474-E2A0-4391-AAE9-29C85B6E0562}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
   <si>
     <t>about-us</t>
   </si>
@@ -121,18 +121,32 @@
     <t>HTML pages</t>
   </si>
   <si>
-    <t>All pages comments</t>
-  </si>
-  <si>
     <t>Individual Page Comments</t>
+  </si>
+  <si>
+    <t>Resolution comments</t>
+  </si>
+  <si>
+    <t>Global comments</t>
+  </si>
+  <si>
+    <t>Incorporated.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Aptos Narrow"/>
@@ -175,7 +189,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -193,6 +207,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -527,10 +545,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE5DDAF-F735-4A0F-851F-30B6F464FDFA}">
-  <dimension ref="A1:C18"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,20 +556,24 @@
     <col min="1" max="1" width="23" style="1" customWidth="1"/>
     <col min="2" max="2" width="77.85546875" customWidth="1"/>
     <col min="3" max="3" width="50.28515625" customWidth="1"/>
+    <col min="4" max="4" width="76.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>404</v>
       </c>
@@ -561,8 +583,9 @@
       <c r="C2" s="5" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D2" s="3"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
@@ -570,8 +593,11 @@
         <v>17</v>
       </c>
       <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D3" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>1</v>
       </c>
@@ -579,8 +605,11 @@
         <v>17</v>
       </c>
       <c r="C4" s="6"/>
-    </row>
-    <row r="5" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D4" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>2</v>
       </c>
@@ -588,8 +617,9 @@
         <v>18</v>
       </c>
       <c r="C5" s="6"/>
-    </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D5" s="3"/>
+    </row>
+    <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>3</v>
       </c>
@@ -597,8 +627,9 @@
         <v>18</v>
       </c>
       <c r="C6" s="6"/>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D6" s="3"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>4</v>
       </c>
@@ -606,8 +637,9 @@
         <v>19</v>
       </c>
       <c r="C7" s="6"/>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D7" s="3"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -615,8 +647,9 @@
         <v>17</v>
       </c>
       <c r="C8" s="6"/>
-    </row>
-    <row r="9" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D8" s="3"/>
+    </row>
+    <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>6</v>
       </c>
@@ -624,8 +657,9 @@
         <v>18</v>
       </c>
       <c r="C9" s="6"/>
-    </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D9" s="3"/>
+    </row>
+    <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>7</v>
       </c>
@@ -633,8 +667,9 @@
         <v>20</v>
       </c>
       <c r="C10" s="6"/>
-    </row>
-    <row r="11" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -642,8 +677,9 @@
         <v>24</v>
       </c>
       <c r="C11" s="6"/>
-    </row>
-    <row r="12" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D11" s="3"/>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -651,8 +687,9 @@
         <v>24</v>
       </c>
       <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D12" s="3"/>
+    </row>
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>10</v>
       </c>
@@ -660,8 +697,9 @@
         <v>25</v>
       </c>
       <c r="C13" s="6"/>
-    </row>
-    <row r="14" spans="1:3" ht="45" x14ac:dyDescent="0.25">
+      <c r="D13" s="3"/>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -669,8 +707,9 @@
         <v>24</v>
       </c>
       <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D14" s="3"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>12</v>
       </c>
@@ -678,8 +717,9 @@
         <v>22</v>
       </c>
       <c r="C15" s="6"/>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D15" s="3"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>13</v>
       </c>
@@ -687,8 +727,9 @@
         <v>22</v>
       </c>
       <c r="C16" s="6"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>14</v>
       </c>
@@ -696,8 +737,9 @@
         <v>22</v>
       </c>
       <c r="C17" s="6"/>
-    </row>
-    <row r="18" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="D17" s="3"/>
+    </row>
+    <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>15</v>
       </c>
@@ -705,6 +747,7 @@
         <v>23</v>
       </c>
       <c r="C18" s="6"/>
+      <c r="D18" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="1">

--- a/docs/7-30-2025 BBB Frontend Review Comments.xlsx
+++ b/docs/7-30-2025 BBB Frontend Review Comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\busybeeboard\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ED0941A-23EE-4053-9DF7-CD9F838F8560}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E38421-7FE5-48BB-BB2B-5A995CFB584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E69E474-E2A0-4391-AAE9-29C85B6E0562}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
   <si>
     <t>about-us</t>
   </si>
@@ -115,9 +115,6 @@
     <t>Brandmark is not overlaid over the header like the other pages is smaller than most pages.  Header is locked.  Has yellow buttons.  Hamburger missing the circle around it.</t>
   </si>
   <si>
-    <t>Can't tell if header is locked…. But buttons need to be yellow like reset-password page.  Does not have hamburger menu button and drop-down.  Also, buttons don't work.</t>
-  </si>
-  <si>
     <t>HTML pages</t>
   </si>
   <si>
@@ -131,6 +128,9 @@
   </si>
   <si>
     <t>Incorporated.</t>
+  </si>
+  <si>
+    <t>Can't tell if header is locked…. But buttons need to be yellow like reset-password page.  Does not have hamburger menu button and drop-down.  Also, buttons don't work.  Needs event categories updated.</t>
   </si>
 </sst>
 </file>
@@ -201,16 +201,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -548,7 +548,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -560,17 +560,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="8" t="s">
+      <c r="C1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>27</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -580,7 +580,7 @@
       <c r="B2" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="7" t="s">
         <v>21</v>
       </c>
       <c r="D2" s="3"/>
@@ -592,9 +592,9 @@
       <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="6"/>
+      <c r="C3" s="8"/>
       <c r="D3" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -604,9 +604,9 @@
       <c r="B4" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="6"/>
+      <c r="C4" s="8"/>
       <c r="D4" s="3" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -616,8 +616,10 @@
       <c r="B5" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="6"/>
-      <c r="D5" s="3"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
@@ -626,8 +628,10 @@
       <c r="B6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C6" s="6"/>
-      <c r="D6" s="3"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
@@ -636,8 +640,10 @@
       <c r="B7" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C7" s="6"/>
-      <c r="D7" s="3"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
@@ -646,7 +652,7 @@
       <c r="B8" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C8" s="6"/>
+      <c r="C8" s="8"/>
       <c r="D8" s="3"/>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -656,7 +662,7 @@
       <c r="B9" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C9" s="6"/>
+      <c r="C9" s="8"/>
       <c r="D9" s="3"/>
     </row>
     <row r="10" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -666,7 +672,7 @@
       <c r="B10" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="6"/>
+      <c r="C10" s="8"/>
       <c r="D10" s="3"/>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -676,7 +682,7 @@
       <c r="B11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="6"/>
+      <c r="C11" s="8"/>
       <c r="D11" s="3"/>
     </row>
     <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -686,7 +692,7 @@
       <c r="B12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="6"/>
+      <c r="C12" s="8"/>
       <c r="D12" s="3"/>
     </row>
     <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -694,9 +700,9 @@
         <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="C13" s="6"/>
+        <v>30</v>
+      </c>
+      <c r="C13" s="8"/>
       <c r="D13" s="3"/>
     </row>
     <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -706,7 +712,7 @@
       <c r="B14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="6"/>
+      <c r="C14" s="8"/>
       <c r="D14" s="3"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -716,7 +722,7 @@
       <c r="B15" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C15" s="6"/>
+      <c r="C15" s="8"/>
       <c r="D15" s="3"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
@@ -726,7 +732,7 @@
       <c r="B16" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C16" s="6"/>
+      <c r="C16" s="8"/>
       <c r="D16" s="3"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
@@ -736,7 +742,7 @@
       <c r="B17" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C17" s="6"/>
+      <c r="C17" s="8"/>
       <c r="D17" s="3"/>
     </row>
     <row r="18" spans="1:4" ht="30" x14ac:dyDescent="0.25">
@@ -746,7 +752,7 @@
       <c r="B18" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C18" s="6"/>
+      <c r="C18" s="8"/>
       <c r="D18" s="3"/>
     </row>
   </sheetData>

--- a/docs/7-30-2025 BBB Frontend Review Comments.xlsx
+++ b/docs/7-30-2025 BBB Frontend Review Comments.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\busybeeboard\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E38421-7FE5-48BB-BB2B-5A995CFB584B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1866811-9CD1-47B0-B0ED-FBBE0DEF99C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{7E69E474-E2A0-4391-AAE9-29C85B6E0562}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>about-us</t>
   </si>
@@ -548,7 +548,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -653,7 +653,9 @@
         <v>17</v>
       </c>
       <c r="C8" s="8"/>
-      <c r="D8" s="3"/>
+      <c r="D8" s="3" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
